--- a/Methodology Library/Hackathon/MCE-R01/MCE-R01 Schemas.xlsx
+++ b/Methodology Library/Hackathon/MCE-R01/MCE-R01 Schemas.xlsx
@@ -24,23 +24,25 @@
     <sheet sheetId="18" name="VVB Signature" state="visible" r:id="rId21"/>
     <sheet sheetId="19" name="Project Type (enum)" state="visible" r:id="rId22"/>
     <sheet sheetId="20" name="Cycle (enum)" state="visible" r:id="rId23"/>
-    <sheet sheetId="21" name="Project activity type (enum)" state="visible" r:id="rId24"/>
-    <sheet sheetId="22" name="For Install capacity in (enum)" state="visible" r:id="rId25"/>
-    <sheet sheetId="23" name="Step 1 Additionality ov (enum)" state="visible" r:id="rId26"/>
-    <sheet sheetId="24" name="Step 5 Is the internal  (enum)" state="visible" r:id="rId27"/>
-    <sheet sheetId="25" name="Step 4 Is the PCEM comm (enum)" state="visible" r:id="rId28"/>
-    <sheet sheetId="26" name="Step 3 Is the PCEM acti (enum)" state="visible" r:id="rId29"/>
-    <sheet sheetId="27" name="Step 2 Is the project t (enum)" state="visible" r:id="rId30"/>
-    <sheet sheetId="28" name="Activities (enum)" state="visible" r:id="rId31"/>
-    <sheet sheetId="29" name="Have main staff thoroug (enum)" state="visible" r:id="rId32"/>
-    <sheet sheetId="30" name="Have main staff reviewe (enum)" state="visible" r:id="rId33"/>
+    <sheet sheetId="21" name="Type of activity (enum)" state="visible" r:id="rId24"/>
+    <sheet sheetId="22" name="Type of Plastic Materia (enum)" state="visible" r:id="rId25"/>
+    <sheet sheetId="23" name="Project activity type (enum)" state="visible" r:id="rId26"/>
+    <sheet sheetId="24" name="For Install capacity in (enum)" state="visible" r:id="rId27"/>
+    <sheet sheetId="25" name="Step 1 Additionality ov (enum)" state="visible" r:id="rId28"/>
+    <sheet sheetId="26" name="Step 5 Is the internal  (enum)" state="visible" r:id="rId29"/>
+    <sheet sheetId="27" name="Step 4 Is the PCEM comm (enum)" state="visible" r:id="rId30"/>
+    <sheet sheetId="28" name="Step 3 Is the PCEM acti (enum)" state="visible" r:id="rId31"/>
+    <sheet sheetId="29" name="Step 2 Is the project t (enum)" state="visible" r:id="rId32"/>
+    <sheet sheetId="30" name="Activities (enum)" state="visible" r:id="rId33"/>
+    <sheet sheetId="31" name="Have main staff thoroug (enum)" state="visible" r:id="rId34"/>
+    <sheet sheetId="32" name="Have main staff reviewe (enum)" state="visible" r:id="rId35"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="255">
   <si>
     <t>PCEM Information</t>
   </si>
@@ -78,24 +80,24 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PCEM Holder Name of the institution (if applicable)</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>PCEM Holder Name of the institution (if applicable)</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>PCEM Holder Roles or responsibilities</t>
   </si>
   <si>
@@ -186,12 +188,24 @@
     <t>Biological</t>
   </si>
   <si>
+    <t>Type of activity (enum)</t>
+  </si>
+  <si>
     <t>Type of activity</t>
   </si>
   <si>
+    <t>Reduce</t>
+  </si>
+  <si>
+    <t>Type of Plastic Materia (enum)</t>
+  </si>
+  <si>
     <t>Type of Plastic Material</t>
   </si>
   <si>
+    <t>PET</t>
+  </si>
+  <si>
     <t>Project Location Lattitude</t>
   </si>
   <si>
@@ -210,7 +224,7 @@
     <t>Maps of the Project Area</t>
   </si>
   <si>
-    <t>ipfs://a01c6268f8c73d626c5d0f087ca9aabc</t>
+    <t>ipfs://7469567f36e32c40f7a0d1a492c32c55</t>
   </si>
   <si>
     <t>Legal description of the boundaries of the PCEM area</t>
@@ -246,7 +260,7 @@
     <t>Holdership granted by any local authority, such as permits or material  use concessions, Bilateral or commercial agreements, Certificates of ownership and freedom of encumbrances or as appropriate. -	Information from local registers, such as cadastre or land registry, or others that apply to the context of the PCEM</t>
   </si>
   <si>
-    <t>ipfs://28983ca68b3d7ddcf57ac85ff082b043</t>
+    <t>ipfs://c1fd47300916528043f0da085865f139</t>
   </si>
   <si>
     <t>Characteristics and prerequisites prior to the start of the PCEM</t>
@@ -267,19 +281,19 @@
     <t>Permits granted by the local authority</t>
   </si>
   <si>
-    <t>ipfs://92a16c85c9375165996f988364fac5de</t>
+    <t>ipfs://bbd8968e223477bb74343907794e1315</t>
   </si>
   <si>
     <t>Final design of the project.</t>
   </si>
   <si>
-    <t>ipfs://408e4f5043708b50d2e525d731bf009a</t>
+    <t>ipfs://a65ef6381c503e266de80d518efee7cf</t>
   </si>
   <si>
     <t>Contracts with suppliers.</t>
   </si>
   <si>
-    <t>ipfs://59f06e589f0d1c6043a694c117a6e97c</t>
+    <t>ipfs://0000029b4c2526e243a6da3935b718c6</t>
   </si>
   <si>
     <t>Duration or lifespan of the project (in years): indicating the start date of activities (day.month.year) and the end date of the project (day.month.year).</t>
@@ -678,7 +692,7 @@
     <t>Documentary Evidence</t>
   </si>
   <si>
-    <t>ipfs://b8441a51fb5045f703cf8fec250ee08f</t>
+    <t>ipfs://a5721f65e700c2d2da71cc7fbf689465</t>
   </si>
   <si>
     <t>VVB Signature</t>
@@ -717,28 +731,28 @@
     <t>Signature</t>
   </si>
   <si>
-    <t>ipfs://8a1b11b0fd8e2670fec93536a2427c8a</t>
+    <t>ipfs://5d199657298c5d96f8ecfec7a7ea24a5</t>
   </si>
   <si>
     <t>Sub-Schema</t>
   </si>
   <si>
-    <t>ipfs://083860605a0956776afe0f385f9582f9</t>
-  </si>
-  <si>
-    <t>ipfs://d26c8bdb5c131d59c4dbd7b4c60138cb</t>
-  </si>
-  <si>
-    <t>ipfs://cf3097851a7ff5d20f007e6c6d17d30e</t>
+    <t>ipfs://b0eb910b1592d77a11ff9cd051704fe6</t>
+  </si>
+  <si>
+    <t>ipfs://d8b4a8a41cc5e284aa5bf498a4d024dd</t>
+  </si>
+  <si>
+    <t>ipfs://0e019e6a661ecc54ee8885e27c793c47</t>
   </si>
   <si>
     <t>Baseline scenario quantification</t>
   </si>
   <si>
-    <t>ipfs://a1fb77fa0645c64ab158eb718c1b4453</t>
-  </si>
-  <si>
-    <t>ipfs://cb08b461d3c8946ae9d001049cfa6488</t>
+    <t>ipfs://9991d29c362ef8170972a4424153aceb</t>
+  </si>
+  <si>
+    <t>ipfs://96006a842222db9b3830262aa087cd3f</t>
   </si>
   <si>
     <t>Schema name</t>
@@ -754,6 +768,30 @@
   </si>
   <si>
     <t>Technological</t>
+  </si>
+  <si>
+    <t>Reuse/repurpose</t>
+  </si>
+  <si>
+    <t>Repair/restore</t>
+  </si>
+  <si>
+    <t>Remanufacture</t>
+  </si>
+  <si>
+    <t>Recycling</t>
+  </si>
+  <si>
+    <t>HDPE</t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>LDPE</t>
+  </si>
+  <si>
+    <t>PP/PS</t>
   </si>
   <si>
     <t>Install capacity increase of an existing facility.</t>
@@ -1391,20 +1429,22 @@
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1412,22 +1452,20 @@
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -1435,22 +1473,20 @@
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -1458,22 +1494,20 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
@@ -1481,14 +1515,12 @@
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -1496,7 +1528,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>23</v>
@@ -1504,14 +1536,12 @@
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>25</v>
@@ -1519,7 +1549,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>26</v>
@@ -1527,14 +1557,12 @@
       <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>29</v>
@@ -1542,7 +1570,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -1557,15 +1585,15 @@
         <v>30</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
@@ -1580,7 +1608,7 @@
         <v>31</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
@@ -1588,7 +1616,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -1603,7 +1631,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -1611,7 +1639,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -1626,7 +1654,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G15" s="5">
         <v>1</v>
@@ -1634,7 +1662,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>13</v>
@@ -1649,15 +1677,15 @@
         <v>34</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>13</v>
@@ -1672,15 +1700,15 @@
         <v>35</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>13</v>
@@ -1695,15 +1723,15 @@
         <v>36</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>13</v>
@@ -1718,15 +1746,15 @@
         <v>37</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>13</v>
@@ -1741,15 +1769,15 @@
         <v>38</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>21</v>
@@ -1764,7 +1792,7 @@
         <v>39</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
@@ -1772,7 +1800,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>40</v>
@@ -1787,7 +1815,7 @@
         <v>41</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>42</v>
@@ -1795,7 +1823,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>40</v>
@@ -1810,7 +1838,7 @@
         <v>43</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>42</v>
@@ -1818,7 +1846,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -1826,22 +1854,20 @@
       <c r="C24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>26</v>
@@ -1849,14 +1875,12 @@
       <c r="C25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>47</v>
@@ -1864,53 +1888,49 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="C26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="C27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>13</v>
@@ -1918,22 +1938,20 @@
       <c r="C28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>13</v>
@@ -1941,37 +1959,33 @@
       <c r="C29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>14</v>
@@ -1979,30 +1993,28 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>13</v>
@@ -2010,22 +2022,20 @@
       <c r="C32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>13</v>
@@ -2033,22 +2043,20 @@
       <c r="C33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>13</v>
@@ -2056,22 +2064,20 @@
       <c r="C34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>21</v>
@@ -2079,14 +2085,12 @@
       <c r="C35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G35" s="5">
         <v>1</v>
@@ -2094,7 +2098,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>21</v>
@@ -2102,14 +2106,12 @@
       <c r="C36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G36" s="5">
         <v>1</v>
@@ -2117,7 +2119,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>13</v>
@@ -2125,35 +2127,33 @@
       <c r="C37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>14</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>13</v>
@@ -2169,58 +2169,54 @@
       <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>14</v>
@@ -2228,7 +2224,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>13</v>
@@ -2236,37 +2232,33 @@
       <c r="C42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>14</v>
@@ -2274,7 +2266,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A44" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>13</v>
@@ -2284,18 +2276,18 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A45" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>13</v>
@@ -2305,81 +2297,81 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A46" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A47" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A48" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A49" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>13</v>
@@ -2389,18 +2381,18 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A50" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>40</v>
@@ -2410,10 +2402,10 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>42</v>
@@ -2421,7 +2413,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A51" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>13</v>
@@ -2431,18 +2423,18 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A52" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>13</v>
@@ -2452,33 +2444,31 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>14</v>
@@ -2486,7 +2476,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A54" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>13</v>
@@ -2496,18 +2486,18 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A55" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>13</v>
@@ -2517,18 +2507,18 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A56" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>13</v>
@@ -2538,18 +2528,18 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A57" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>13</v>
@@ -2559,18 +2549,18 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A58" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>13</v>
@@ -2580,18 +2570,18 @@
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A59" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>13</v>
@@ -2601,18 +2591,18 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A60" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>13</v>
@@ -2622,18 +2612,18 @@
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A61" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>21</v>
@@ -2643,10 +2633,10 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G61" s="9">
         <v>1</v>
@@ -2654,22 +2644,20 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>14</v>
@@ -2677,31 +2665,31 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A63" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A64" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>14</v>
@@ -2710,10 +2698,10 @@
         <f>EXACT(G63,"Yes")</f>
       </c>
       <c r="E64" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>14</v>
@@ -2721,31 +2709,31 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A65" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A66" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>14</v>
@@ -2754,10 +2742,10 @@
         <f>EXACT(G65,"No")</f>
       </c>
       <c r="E66" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>14</v>
@@ -2765,43 +2753,43 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="3" collapsed="1">
       <c r="A67" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="3" collapsed="1">
       <c r="A68" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D68" s="9">
         <f>EXACT(G67,"Yes")</f>
       </c>
       <c r="E68" s="14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>14</v>
@@ -2809,10 +2797,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="3" collapsed="1">
       <c r="A69" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>14</v>
@@ -2821,10 +2809,10 @@
         <f>EXACT(G67,"No")</f>
       </c>
       <c r="E69" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>14</v>
@@ -2832,43 +2820,43 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="4" collapsed="1">
       <c r="A70" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="4" collapsed="1">
       <c r="A71" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D71" s="9">
         <f>EXACT(G70,"No")</f>
       </c>
       <c r="E71" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>14</v>
@@ -2876,10 +2864,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="4" collapsed="1">
       <c r="A72" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>14</v>
@@ -2888,10 +2876,10 @@
         <f>EXACT(G70,"Yes")</f>
       </c>
       <c r="E72" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>14</v>
@@ -2899,43 +2887,43 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="5" collapsed="1">
       <c r="A73" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="5" collapsed="1">
       <c r="A74" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D74" s="9">
         <f>EXACT(G73,"Yes")</f>
       </c>
       <c r="E74" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>14</v>
@@ -2943,22 +2931,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="5" collapsed="1">
       <c r="A75" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D75" s="9">
         <f>EXACT(G73,"No")</f>
       </c>
       <c r="E75" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>14</v>
@@ -2966,7 +2954,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="5" collapsed="1">
       <c r="A76" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>13</v>
@@ -2976,18 +2964,18 @@
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="4" collapsed="1">
       <c r="A77" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>13</v>
@@ -2997,18 +2985,18 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="3" collapsed="1">
       <c r="A78" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>13</v>
@@ -3018,33 +3006,33 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A79" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D79" s="9">
         <f>EXACT(G65,"Yes")</f>
       </c>
       <c r="E79" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>14</v>
@@ -3052,7 +3040,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A80" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>13</v>
@@ -3062,33 +3050,33 @@
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F80" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A81" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D81" s="9">
         <f>EXACT(G63,"No")</f>
       </c>
       <c r="E81" s="14" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>14</v>
@@ -3096,7 +3084,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A82" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>13</v>
@@ -3106,33 +3094,31 @@
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F82" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>14</v>
@@ -3140,43 +3126,43 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A84" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A85" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D85" s="9">
         <f>EXACT(G84,"Increase of collection capacity for existing recycling facilities.")</f>
       </c>
       <c r="E85" s="15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>14</v>
@@ -3184,7 +3170,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A86" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>21</v>
@@ -3196,10 +3182,10 @@
         <f>EXACT(G84,"Increase of collection capacity for existing recycling facilities.")</f>
       </c>
       <c r="E86" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G86" s="9">
         <v>1</v>
@@ -3207,22 +3193,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A87" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D87" s="9">
         <f>EXACT(G84,"Retrofit of a recycling facility.")</f>
       </c>
       <c r="E87" s="15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>14</v>
@@ -3230,7 +3216,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A88" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>21</v>
@@ -3242,10 +3228,10 @@
         <f>EXACT(G84,"Retrofit of a recycling facility.")</f>
       </c>
       <c r="E88" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G88" s="9">
         <v>1</v>
@@ -3253,30 +3239,30 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A89" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D89" s="9">
         <f>EXACT(G84,"Install capacity increase of an existing facility.")</f>
       </c>
       <c r="E89" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A90" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>21</v>
@@ -3288,10 +3274,10 @@
         <f>EXACT(G84,"Install capacity increase of an existing facility.")</f>
       </c>
       <c r="E90" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G90" s="9">
         <v>1</v>
@@ -3299,22 +3285,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A91" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D91" s="9">
         <f>EXACT(G84,"Development of a new recycling facility.")</f>
       </c>
       <c r="E91" s="15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G91" s="9" t="s">
         <v>14</v>
@@ -3322,7 +3308,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A92" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>21</v>
@@ -3334,10 +3320,10 @@
         <f>EXACT(G84,"Development of a new recycling facility.")</f>
       </c>
       <c r="E92" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G92" s="9">
         <v>1</v>
@@ -3345,22 +3331,20 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>14</v>
@@ -3368,7 +3352,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A94" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>21</v>
@@ -3378,10 +3362,10 @@
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G94" s="9">
         <v>1</v>
@@ -3389,7 +3373,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A95" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>21</v>
@@ -3399,10 +3383,10 @@
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G95" s="9">
         <v>1</v>
@@ -3410,7 +3394,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A96" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>21</v>
@@ -3420,10 +3404,10 @@
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G96" s="9">
         <v>1</v>
@@ -3431,7 +3415,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A97" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>21</v>
@@ -3441,10 +3425,10 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G97" s="9">
         <v>1</v>
@@ -3452,7 +3436,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A98" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>21</v>
@@ -3462,10 +3446,10 @@
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G98" s="9">
         <v>1</v>
@@ -3473,22 +3457,20 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>14</v>
@@ -3496,7 +3478,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A100" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>21</v>
@@ -3506,10 +3488,10 @@
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G100" s="9">
         <v>1</v>
@@ -3517,7 +3499,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A101" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>21</v>
@@ -3527,10 +3509,10 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G101" s="9">
         <v>1</v>
@@ -3538,7 +3520,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A102" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>21</v>
@@ -3548,10 +3530,10 @@
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G102" s="9">
         <v>1</v>
@@ -3559,7 +3541,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A103" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>21</v>
@@ -3569,10 +3551,10 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G103" s="9">
         <v>1</v>
@@ -3580,7 +3562,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A104" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>21</v>
@@ -3590,10 +3572,10 @@
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G104" s="9">
         <v>1</v>
@@ -3601,7 +3583,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A105" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>21</v>
@@ -3611,10 +3593,10 @@
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G105" s="9">
         <v>1</v>
@@ -3622,7 +3604,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A106" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>21</v>
@@ -3632,10 +3614,10 @@
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G106" s="9">
         <v>1</v>
@@ -3643,7 +3625,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A107" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>21</v>
@@ -3653,10 +3635,10 @@
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G107" s="9">
         <v>1</v>
@@ -3664,7 +3646,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A108" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>21</v>
@@ -3674,10 +3656,10 @@
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G108" s="9">
         <v>1</v>
@@ -3685,7 +3667,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A109" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>21</v>
@@ -3695,10 +3677,10 @@
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G109" s="9">
         <v>1</v>
@@ -3706,7 +3688,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A110" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>21</v>
@@ -3716,10 +3698,10 @@
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G110" s="9">
         <v>1</v>
@@ -3727,22 +3709,20 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>14</v>
@@ -3750,7 +3730,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A112" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>21</v>
@@ -3760,10 +3740,10 @@
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G112" s="9">
         <v>1</v>
@@ -3771,7 +3751,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A113" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>21</v>
@@ -3781,10 +3761,10 @@
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G113" s="9">
         <v>1</v>
@@ -3792,7 +3772,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A114" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>21</v>
@@ -3802,10 +3782,10 @@
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G114" s="9">
         <v>1</v>
@@ -3813,7 +3793,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A115" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>21</v>
@@ -3823,10 +3803,10 @@
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G115" s="9">
         <v>1</v>
@@ -3834,7 +3814,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A116" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>21</v>
@@ -3844,10 +3824,10 @@
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G116" s="9">
         <v>1</v>
@@ -3855,7 +3835,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A117" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>21</v>
@@ -3865,10 +3845,10 @@
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G117" s="9">
         <v>1</v>
@@ -3876,7 +3856,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A118" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>21</v>
@@ -3886,10 +3866,10 @@
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G118" s="9">
         <v>1</v>
@@ -3897,22 +3877,20 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>14</v>
@@ -3920,7 +3898,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A120" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>21</v>
@@ -3930,10 +3908,10 @@
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G120" s="9">
         <v>1</v>
@@ -3941,7 +3919,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A121" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>21</v>
@@ -3951,10 +3929,10 @@
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G121" s="9">
         <v>1</v>
@@ -3962,7 +3940,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A122" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>21</v>
@@ -3972,10 +3950,10 @@
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G122" s="9">
         <v>1</v>
@@ -3983,7 +3961,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A123" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>21</v>
@@ -3993,10 +3971,10 @@
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G123" s="9">
         <v>1</v>
@@ -4004,7 +3982,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A124" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>21</v>
@@ -4014,10 +3992,10 @@
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G124" s="9">
         <v>1</v>
@@ -4025,7 +4003,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A125" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>21</v>
@@ -4035,10 +4013,10 @@
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G125" s="9">
         <v>1</v>
@@ -4046,7 +4024,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A126" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>21</v>
@@ -4056,10 +4034,10 @@
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G126" s="9">
         <v>1</v>
@@ -4067,22 +4045,20 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>14</v>
@@ -4090,7 +4066,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A128" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>21</v>
@@ -4100,10 +4076,10 @@
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G128" s="9">
         <v>1</v>
@@ -4111,7 +4087,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A129" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>21</v>
@@ -4121,10 +4097,10 @@
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G129" s="9">
         <v>1</v>
@@ -4132,7 +4108,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A130" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>21</v>
@@ -4142,10 +4118,10 @@
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G130" s="9">
         <v>1</v>
@@ -4157,12 +4133,18 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
   </mergeCells>
-  <dataValidations count="9">
+  <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" sqref="G11">
       <formula1>'Project Type (enum)'!A3:A5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="G25">
       <formula1>'Cycle (enum)'!A3:A4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="G26">
+      <formula1>'Type of activity (enum)'!A3:A7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="G27">
+      <formula1>'Type of Plastic Materia (enum)'!A3:A7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="G63">
       <formula1>'Step 1 Additionality ov (enum)'!A3:A4</formula1>
@@ -4189,26 +4171,28 @@
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1" location="#'Project Type (enum)'!A3"/>
     <hyperlink ref="C25" r:id="rId2" location="#'Cycle (enum)'!A3"/>
-    <hyperlink ref="B43" r:id="rId3" location="#'Time Limits'!A1"/>
-    <hyperlink ref="B53" r:id="rId4" location="#'Methodology'!A1"/>
-    <hyperlink ref="B62" r:id="rId5" location="#'Additionality'!A1"/>
-    <hyperlink ref="C63" r:id="rId6" location="#'Step 1 Additionality ov (enum)'!A3"/>
-    <hyperlink ref="B64" r:id="rId7" location="#'Step 2 First-of-its-kind proje'!A1"/>
-    <hyperlink ref="C65" r:id="rId8" location="#'Step 2 Is the project t (enum)'!A3"/>
-    <hyperlink ref="B66" r:id="rId9" location="#'Step 3 Is the PCEM actively fu'!A1"/>
-    <hyperlink ref="C67" r:id="rId10" location="#'Step 3 Is the PCEM acti (enum)'!A3"/>
-    <hyperlink ref="B69" r:id="rId11" location="#'Step 4 Common practice'!A1"/>
-    <hyperlink ref="C70" r:id="rId12" location="#'Step 4 Is the PCEM comm (enum)'!A3"/>
-    <hyperlink ref="B72" r:id="rId13" location="#'Step 5 Investment Analysis'!A1"/>
-    <hyperlink ref="C73" r:id="rId14" location="#'Step 5 Is the internal  (enum)'!A3"/>
-    <hyperlink ref="B83" r:id="rId15" location="#'Baseline scenario Selection'!A1"/>
-    <hyperlink ref="C84" r:id="rId16" location="#'Project activity type (enum)'!A3"/>
-    <hyperlink ref="C89" r:id="rId17" location="#'For Install capacity in (enum)'!A3"/>
-    <hyperlink ref="B93" r:id="rId18" location="#'Baseline scenario quantificati'!A1"/>
-    <hyperlink ref="B99" r:id="rId19" location="#'Project Scenario Quantificatio'!A1"/>
-    <hyperlink ref="B111" r:id="rId20" location="#'Leakages'!A1"/>
-    <hyperlink ref="B119" r:id="rId21" location="#'GHG Emission Calculation'!A1"/>
-    <hyperlink ref="B127" r:id="rId22" location="#'Net Plastic Waste Recycled'!A1"/>
+    <hyperlink ref="C26" r:id="rId3" location="#'Type of activity (enum)'!A3"/>
+    <hyperlink ref="C27" r:id="rId4" location="#'Type of Plastic Materia (enum)'!A3"/>
+    <hyperlink ref="B43" r:id="rId5" location="#'Time Limits'!A1"/>
+    <hyperlink ref="B53" r:id="rId6" location="#'Methodology'!A1"/>
+    <hyperlink ref="B62" r:id="rId7" location="#'Additionality'!A1"/>
+    <hyperlink ref="C63" r:id="rId8" location="#'Step 1 Additionality ov (enum)'!A3"/>
+    <hyperlink ref="B64" r:id="rId9" location="#'Step 2 First-of-its-kind proje'!A1"/>
+    <hyperlink ref="C65" r:id="rId10" location="#'Step 2 Is the project t (enum)'!A3"/>
+    <hyperlink ref="B66" r:id="rId11" location="#'Step 3 Is the PCEM actively fu'!A1"/>
+    <hyperlink ref="C67" r:id="rId12" location="#'Step 3 Is the PCEM acti (enum)'!A3"/>
+    <hyperlink ref="B69" r:id="rId13" location="#'Step 4 Common practice'!A1"/>
+    <hyperlink ref="C70" r:id="rId14" location="#'Step 4 Is the PCEM comm (enum)'!A3"/>
+    <hyperlink ref="B72" r:id="rId15" location="#'Step 5 Investment Analysis'!A1"/>
+    <hyperlink ref="C73" r:id="rId16" location="#'Step 5 Is the internal  (enum)'!A3"/>
+    <hyperlink ref="B83" r:id="rId17" location="#'Baseline scenario Selection'!A1"/>
+    <hyperlink ref="C84" r:id="rId18" location="#'Project activity type (enum)'!A3"/>
+    <hyperlink ref="C89" r:id="rId19" location="#'For Install capacity in (enum)'!A3"/>
+    <hyperlink ref="B93" r:id="rId20" location="#'Baseline scenario quantificati'!A1"/>
+    <hyperlink ref="B99" r:id="rId21" location="#'Project Scenario Quantificatio'!A1"/>
+    <hyperlink ref="B111" r:id="rId22" location="#'Leakages'!A1"/>
+    <hyperlink ref="B119" r:id="rId23" location="#'GHG Emission Calculation'!A1"/>
+    <hyperlink ref="B127" r:id="rId24" location="#'Net Plastic Waste Recycled'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -4233,7 +4217,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4260,7 +4244,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4293,7 +4277,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -4303,10 +4287,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -4314,7 +4298,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -4324,10 +4308,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -4335,7 +4319,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
@@ -4345,10 +4329,10 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -4356,7 +4340,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -4366,10 +4350,10 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
@@ -4377,7 +4361,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
@@ -4387,10 +4371,10 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -4425,7 +4409,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4452,7 +4436,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4485,7 +4469,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -4495,10 +4479,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -4506,7 +4490,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -4516,10 +4500,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -4527,7 +4511,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
@@ -4537,10 +4521,10 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -4548,7 +4532,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -4558,10 +4542,10 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
@@ -4569,7 +4553,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
@@ -4579,10 +4563,10 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -4590,7 +4574,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>21</v>
@@ -4600,10 +4584,10 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
@@ -4611,7 +4595,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
@@ -4621,10 +4605,10 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -4659,7 +4643,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4686,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4719,31 +4703,31 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
@@ -4752,10 +4736,10 @@
         <f>EXACT(G5,"Yes")</f>
       </c>
       <c r="E6" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
@@ -4763,31 +4747,31 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A7" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A8" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>14</v>
@@ -4796,10 +4780,10 @@
         <f>EXACT(G7,"No")</f>
       </c>
       <c r="E8" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>14</v>
@@ -4807,43 +4791,43 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A10" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D10" s="9">
         <f>EXACT(G9,"Yes")</f>
       </c>
       <c r="E10" s="14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>14</v>
@@ -4851,10 +4835,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A11" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>14</v>
@@ -4863,10 +4847,10 @@
         <f>EXACT(G9,"No")</f>
       </c>
       <c r="E11" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>14</v>
@@ -4874,43 +4858,43 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="3" collapsed="1">
       <c r="A12" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="3" collapsed="1">
       <c r="A13" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D13" s="9">
         <f>EXACT(G12,"No")</f>
       </c>
       <c r="E13" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>14</v>
@@ -4918,10 +4902,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="3" collapsed="1">
       <c r="A14" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>14</v>
@@ -4930,10 +4914,10 @@
         <f>EXACT(G12,"Yes")</f>
       </c>
       <c r="E14" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>14</v>
@@ -4941,43 +4925,43 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="4" collapsed="1">
       <c r="A15" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="4" collapsed="1">
       <c r="A16" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D16" s="9">
         <f>EXACT(G15,"Yes")</f>
       </c>
       <c r="E16" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>14</v>
@@ -4985,22 +4969,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="4" collapsed="1">
       <c r="A17" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D17" s="9">
         <f>EXACT(G15,"No")</f>
       </c>
       <c r="E17" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>14</v>
@@ -5008,7 +4992,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="4" collapsed="1">
       <c r="A18" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>13</v>
@@ -5018,18 +5002,18 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="3" collapsed="1">
       <c r="A19" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>13</v>
@@ -5039,18 +5023,18 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A20" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>13</v>
@@ -5060,33 +5044,33 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A21" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D21" s="9">
         <f>EXACT(G7,"Yes")</f>
       </c>
       <c r="E21" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>14</v>
@@ -5094,7 +5078,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A22" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>13</v>
@@ -5104,33 +5088,33 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D23" s="5">
         <f>EXACT(G5,"No")</f>
       </c>
       <c r="E23" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>14</v>
@@ -5138,7 +5122,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -5148,13 +5132,13 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5214,7 +5198,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5241,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5274,43 +5258,43 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D6" s="5">
         <f>EXACT(G5,"Yes")</f>
       </c>
       <c r="E6" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
@@ -5318,22 +5302,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D7" s="5">
         <f>EXACT(G5,"No")</f>
       </c>
       <c r="E7" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>14</v>
@@ -5341,7 +5325,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -5351,13 +5335,13 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5397,7 +5381,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5424,7 +5408,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5457,43 +5441,43 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D6" s="5">
         <f>EXACT(G5,"No")</f>
       </c>
       <c r="E6" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
@@ -5501,10 +5485,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -5513,10 +5497,10 @@
         <f>EXACT(G5,"Yes")</f>
       </c>
       <c r="E7" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>14</v>
@@ -5524,43 +5508,43 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A8" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A9" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9">
         <f>EXACT(G8,"Yes")</f>
       </c>
       <c r="E9" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>14</v>
@@ -5568,22 +5552,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A10" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D10" s="9">
         <f>EXACT(G8,"No")</f>
       </c>
       <c r="E10" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>14</v>
@@ -5591,7 +5575,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A11" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>13</v>
@@ -5601,18 +5585,18 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -5622,13 +5606,13 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5673,7 +5657,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5700,7 +5684,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5733,43 +5717,43 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D6" s="5">
         <f>EXACT(G5,"Yes")</f>
       </c>
       <c r="E6" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
@@ -5777,10 +5761,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -5789,10 +5773,10 @@
         <f>EXACT(G5,"No")</f>
       </c>
       <c r="E7" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>14</v>
@@ -5800,43 +5784,43 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A8" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A9" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9">
         <f>EXACT(G8,"No")</f>
       </c>
       <c r="E9" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>14</v>
@@ -5844,10 +5828,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A10" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>14</v>
@@ -5856,10 +5840,10 @@
         <f>EXACT(G8,"Yes")</f>
       </c>
       <c r="E10" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>14</v>
@@ -5867,43 +5851,43 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A11" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A12" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D12" s="9">
         <f>EXACT(G11,"Yes")</f>
       </c>
       <c r="E12" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>14</v>
@@ -5911,22 +5895,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A13" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D13" s="9">
         <f>EXACT(G11,"No")</f>
       </c>
       <c r="E13" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>14</v>
@@ -5934,7 +5918,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A14" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>13</v>
@@ -5944,18 +5928,18 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A15" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>13</v>
@@ -5965,18 +5949,18 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>13</v>
@@ -5986,13 +5970,13 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6042,7 +6026,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6069,7 +6053,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6102,31 +6086,31 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
@@ -6135,10 +6119,10 @@
         <f>EXACT(G5,"No")</f>
       </c>
       <c r="E6" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
@@ -6146,43 +6130,43 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A7" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A8" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D8" s="9">
         <f>EXACT(G7,"Yes")</f>
       </c>
       <c r="E8" s="14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>14</v>
@@ -6190,10 +6174,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A9" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>14</v>
@@ -6202,10 +6186,10 @@
         <f>EXACT(G7,"No")</f>
       </c>
       <c r="E9" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>14</v>
@@ -6213,43 +6197,43 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A11" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D11" s="9">
         <f>EXACT(G10,"No")</f>
       </c>
       <c r="E11" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>14</v>
@@ -6257,10 +6241,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A12" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>14</v>
@@ -6269,10 +6253,10 @@
         <f>EXACT(G10,"Yes")</f>
       </c>
       <c r="E12" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>14</v>
@@ -6280,43 +6264,43 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="3" collapsed="1">
       <c r="A13" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="3" collapsed="1">
       <c r="A14" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" s="9">
         <f>EXACT(G13,"Yes")</f>
       </c>
       <c r="E14" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>14</v>
@@ -6324,22 +6308,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="3" collapsed="1">
       <c r="A15" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D15" s="9">
         <f>EXACT(G13,"No")</f>
       </c>
       <c r="E15" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>14</v>
@@ -6347,7 +6331,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="3" collapsed="1">
       <c r="A16" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>13</v>
@@ -6357,18 +6341,18 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A17" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>13</v>
@@ -6378,18 +6362,18 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A18" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>13</v>
@@ -6399,33 +6383,33 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D19" s="5">
         <f>EXACT(G5,"Yes")</f>
       </c>
       <c r="E19" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>14</v>
@@ -6433,7 +6417,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>13</v>
@@ -6443,13 +6427,13 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6504,7 +6488,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6531,7 +6515,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6564,20 +6548,20 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>14</v>
@@ -6585,7 +6569,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -6595,18 +6579,18 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -6616,55 +6600,55 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -6704,7 +6688,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6731,7 +6715,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6764,20 +6748,20 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>14</v>
@@ -6785,62 +6769,62 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="8" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
@@ -6848,7 +6832,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -6858,18 +6842,18 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
@@ -6879,18 +6863,18 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
@@ -6900,18 +6884,18 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -6921,18 +6905,18 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>40</v>
@@ -6945,7 +6929,7 @@
         <v>40</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>42</v>
@@ -6953,23 +6937,23 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -7009,7 +6993,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -7017,7 +7001,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>28</v>
@@ -7031,13 +7015,13 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B4" s="19"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B5" s="19"/>
     </row>
@@ -7070,7 +7054,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7130,7 +7114,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -7140,10 +7124,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -7151,20 +7135,20 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
@@ -7172,7 +7156,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
@@ -7182,10 +7166,10 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -7193,20 +7177,20 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
@@ -7214,7 +7198,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
@@ -7224,10 +7208,10 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -7235,20 +7219,20 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>14</v>
@@ -7256,7 +7240,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
@@ -7266,10 +7250,10 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -7277,20 +7261,20 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>14</v>
@@ -7298,7 +7282,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -7308,31 +7292,31 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>14</v>
@@ -7363,7 +7347,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -7371,7 +7355,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>46</v>
@@ -7385,7 +7369,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B4" s="19"/>
     </row>
@@ -7404,7 +7388,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -7413,50 +7397,57 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B4" s="19"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B5" s="19"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B6" s="19"/>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -7468,7 +7459,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -7477,36 +7468,57 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B4" s="19"/>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -7518,7 +7530,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -7527,36 +7539,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="B4" s="19"/>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -7577,29 +7603,29 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="B4" s="19"/>
     </row>
@@ -7627,29 +7653,29 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="19"/>
     </row>
@@ -7677,29 +7703,29 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="19"/>
     </row>
@@ -7727,29 +7753,29 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="19"/>
     </row>
@@ -7777,29 +7803,29 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>209</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="B4" s="19"/>
     </row>
@@ -7827,29 +7853,29 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>216</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="19"/>
     </row>
@@ -7881,7 +7907,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7941,20 +7967,20 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>14</v>
@@ -7962,7 +7988,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -7972,18 +7998,18 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -7993,18 +8019,18 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -8014,18 +8040,18 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
@@ -8035,10 +8061,10 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -8046,41 +8072,41 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>14</v>
@@ -8088,7 +8114,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -8098,18 +8124,18 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -8119,18 +8145,18 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -8140,10 +8166,10 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -8151,7 +8177,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>23</v>
@@ -8164,7 +8190,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>25</v>
@@ -8172,20 +8198,20 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>14</v>
@@ -8193,7 +8219,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>13</v>
@@ -8203,18 +8229,18 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>13</v>
@@ -8224,18 +8250,18 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>13</v>
@@ -8245,18 +8271,18 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>13</v>
@@ -8266,18 +8292,18 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>13</v>
@@ -8287,18 +8313,18 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>13</v>
@@ -8308,31 +8334,31 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>14</v>
@@ -8340,20 +8366,20 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A24" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="14" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>14</v>
@@ -8361,7 +8387,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A25" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>13</v>
@@ -8371,18 +8397,18 @@
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A26" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>13</v>
@@ -8392,73 +8418,73 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A27" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A28" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>14</v>
@@ -8466,20 +8492,20 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A30" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="14" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>14</v>
@@ -8487,62 +8513,62 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A31" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A32" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A33" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="14" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>14</v>
@@ -8550,7 +8576,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A34" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>13</v>
@@ -8560,18 +8586,18 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A35" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>13</v>
@@ -8581,18 +8607,18 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A36" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>13</v>
@@ -8602,18 +8628,18 @@
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A37" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>13</v>
@@ -8623,18 +8649,18 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A38" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>40</v>
@@ -8647,7 +8673,7 @@
         <v>40</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>42</v>
@@ -8655,23 +8681,23 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A39" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -8717,29 +8743,129 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>16</v>
+        <v>254</v>
+      </c>
+      <c r="B4" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="19"/>
     </row>
@@ -8771,7 +8897,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8798,7 +8924,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8831,7 +8957,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -8841,18 +8967,18 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -8862,81 +8988,81 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
@@ -8946,18 +9072,18 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>40</v>
@@ -8967,10 +9093,10 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>42</v>
@@ -8978,7 +9104,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -8988,18 +9114,18 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -9009,13 +9135,13 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -9047,7 +9173,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9074,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9107,7 +9233,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -9117,18 +9243,18 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -9138,18 +9264,18 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -9159,18 +9285,18 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -9180,18 +9306,18 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -9201,18 +9327,18 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
@@ -9222,18 +9348,18 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
@@ -9243,18 +9369,18 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
@@ -9264,10 +9390,10 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
@@ -9302,7 +9428,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9329,7 +9455,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9362,43 +9488,43 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D6" s="5">
         <f>EXACT(G5,"Increase of collection capacity for existing recycling facilities.")</f>
       </c>
       <c r="E6" s="16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
@@ -9406,7 +9532,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
@@ -9418,10 +9544,10 @@
         <f>EXACT(G5,"Increase of collection capacity for existing recycling facilities.")</f>
       </c>
       <c r="E7" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -9429,22 +9555,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D8" s="5">
         <f>EXACT(G5,"Retrofit of a recycling facility.")</f>
       </c>
       <c r="E8" s="16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
@@ -9452,7 +9578,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
@@ -9464,10 +9590,10 @@
         <f>EXACT(G5,"Retrofit of a recycling facility.")</f>
       </c>
       <c r="E9" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -9475,30 +9601,30 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D10" s="5">
         <f>EXACT(G5,"Install capacity increase of an existing facility.")</f>
       </c>
       <c r="E10" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
@@ -9510,10 +9636,10 @@
         <f>EXACT(G5,"Install capacity increase of an existing facility.")</f>
       </c>
       <c r="E11" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -9521,22 +9647,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D12" s="5">
         <f>EXACT(G5,"Development of a new recycling facility.")</f>
       </c>
       <c r="E12" s="16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>14</v>
@@ -9544,7 +9670,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
@@ -9556,10 +9682,10 @@
         <f>EXACT(G5,"Development of a new recycling facility.")</f>
       </c>
       <c r="E13" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
@@ -9606,7 +9732,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9633,7 +9759,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9666,7 +9792,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -9676,10 +9802,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -9687,7 +9813,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -9697,10 +9823,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -9708,7 +9834,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
@@ -9718,10 +9844,10 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -9729,7 +9855,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -9739,10 +9865,10 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
@@ -9750,7 +9876,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
@@ -9760,10 +9886,10 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -9771,7 +9897,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>21</v>
@@ -9781,10 +9907,10 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
@@ -9792,7 +9918,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
@@ -9802,10 +9928,10 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -9840,7 +9966,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9867,7 +9993,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9900,7 +10026,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -9910,10 +10036,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -9921,7 +10047,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -9931,10 +10057,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -9942,7 +10068,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
@@ -9952,10 +10078,10 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -9990,7 +10116,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10017,7 +10143,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -10050,7 +10176,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -10060,10 +10186,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -10071,7 +10197,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -10081,10 +10207,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -10092,7 +10218,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
@@ -10102,10 +10228,10 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -10113,7 +10239,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -10123,10 +10249,10 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
@@ -10134,7 +10260,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
@@ -10144,10 +10270,10 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -10155,7 +10281,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>21</v>
@@ -10165,10 +10291,10 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
@@ -10176,7 +10302,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
@@ -10186,10 +10312,10 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -10197,7 +10323,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
@@ -10207,10 +10333,10 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
@@ -10218,7 +10344,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
@@ -10228,10 +10354,10 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
@@ -10239,7 +10365,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -10249,10 +10375,10 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -10260,7 +10386,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -10270,10 +10396,10 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G15" s="5">
         <v>1</v>
